--- a/medicine/Sexualité et sexologie/Institut_Kinsey/Institut_Kinsey.xlsx
+++ b/medicine/Sexualité et sexologie/Institut_Kinsey/Institut_Kinsey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Institut Kinsey (The Kinsey Institute for Research in Sex, Gender, and Reproduction) est un organisme de recherche sexologique américain, fondé par Alfred Kinsey en 1947 comme établissement associé à l'université de l'Indiana à Bloomington (université de l'Indiana)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Institut Kinsey (The Kinsey Institute for Research in Sex, Gender, and Reproduction) est un organisme de recherche sexologique américain, fondé par Alfred Kinsey en 1947 comme établissement associé à l'université de l'Indiana à Bloomington (université de l'Indiana).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les origines de l'Institut Kinsey se trouvent dans les recherches scientifiques d'Alfred Kinsey, professeur et entomologiste de l'Université de l'Indiana devenu chercheur en sexualité. La création en 1947 de l'institut à but non lucratif, initialement nommé Institute for Sex Research (ISR), a été soutenue par le président de l'Université de l'Indiana, Herman B Wells, et la Fondation Rockefeller, un important bailleur de fonds de la recherche de Kinsey. L'ISR a été créé pour protéger et préserver la confidentialité des données et des documents de recherche de Kinsey en créant un référentiel sécurisé et permanent pour eux[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les origines de l'Institut Kinsey se trouvent dans les recherches scientifiques d'Alfred Kinsey, professeur et entomologiste de l'Université de l'Indiana devenu chercheur en sexualité. La création en 1947 de l'institut à but non lucratif, initialement nommé Institute for Sex Research (ISR), a été soutenue par le président de l'Université de l'Indiana, Herman B Wells, et la Fondation Rockefeller, un important bailleur de fonds de la recherche de Kinsey. L'ISR a été créé pour protéger et préserver la confidentialité des données et des documents de recherche de Kinsey en créant un référentiel sécurisé et permanent pour eux.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ses statuts, sa mission est « de promouvoir l'étude de la sexualité humaine, tant sur le plan de la santé qu'au niveau des savoirs, et ce, à un niveau mondial ». Ce centre, reconnu d'utilité publique par l'ONU, dispose d'une importante bibliothèque et de l'une des plus grandes bases de données sur ces questions. Il contribue à former des chercheurs, organise des colloques et soutient de nombreux travaux et publications. L'Institut Kinsey réalise notamment des études annuelles intitulées Singles in America[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ses statuts, sa mission est « de promouvoir l'étude de la sexualité humaine, tant sur le plan de la santé qu'au niveau des savoirs, et ce, à un niveau mondial ». Ce centre, reconnu d'utilité publique par l'ONU, dispose d'une importante bibliothèque et de l'une des plus grandes bases de données sur ces questions. Il contribue à former des chercheurs, organise des colloques et soutient de nombreux travaux et publications. L'Institut Kinsey réalise notamment des études annuelles intitulées Singles in America.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Développement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En avril 2014, l'institut Kinsey obtient un « statut consultatif spécial » auprès du Conseil économique et social des Nations unies[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En avril 2014, l'institut Kinsey obtient un « statut consultatif spécial » auprès du Conseil économique et social des Nations unies.
 </t>
         </is>
       </c>
